--- a/upload/excel/2506_성동초_발주서_이가에프엔비_업로드용.xlsx
+++ b/upload/excel/2506_성동초_발주서_이가에프엔비_업로드용.xlsx
@@ -528,7 +528,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A2:AJ8"/>
+  <dimension ref="A1:AK8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="AD15" sqref="AD15"/>
@@ -543,6 +543,7 @@
     <col width="4.19921875" customWidth="1" style="10" min="7" max="36"/>
   </cols>
   <sheetData>
+    <row r="1"/>
     <row r="2" ht="19.2" customHeight="1" s="10">
       <c r="A2" s="5" t="inlineStr">
         <is>
@@ -743,6 +744,11 @@
       <c r="AJ5" s="1" t="inlineStr">
         <is>
           <t>총량</t>
+        </is>
+      </c>
+      <c r="AK5" t="inlineStr">
+        <is>
+          <t>계약단가</t>
         </is>
       </c>
     </row>
@@ -810,8 +816,12 @@
       <c r="AI6" s="8" t="n">
         <v>65</v>
       </c>
-      <c r="AJ6" s="7" t="n">
-        <v>130</v>
+      <c r="AJ6" s="7">
+        <f>SUM(G6:AI6)</f>
+        <v/>
+      </c>
+      <c r="AK6" t="n">
+        <v>18040</v>
       </c>
     </row>
     <row r="7" ht="34.2" customHeight="1" s="10">
@@ -876,8 +886,12 @@
       <c r="AG7" s="7" t="n"/>
       <c r="AH7" s="7" t="n"/>
       <c r="AI7" s="7" t="n"/>
-      <c r="AJ7" s="7" t="n">
-        <v>45</v>
+      <c r="AJ7" s="7">
+        <f>SUM(G7:AI7)</f>
+        <v/>
+      </c>
+      <c r="AK7" t="n">
+        <v>12292</v>
       </c>
     </row>
     <row r="8" ht="34.2" customHeight="1" s="10">
@@ -891,95 +905,125 @@
           <t>합계</t>
         </is>
       </c>
-      <c r="G8" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="H8" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="I8" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="J8" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="K8" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="L8" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="M8" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="N8" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="O8" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="P8" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q8" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="R8" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="S8" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="T8" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="U8" s="7" t="n">
-        <v>45</v>
-      </c>
-      <c r="V8" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="W8" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="X8" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y8" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z8" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA8" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB8" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC8" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD8" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE8" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF8" s="7" t="n">
-        <v>65</v>
-      </c>
-      <c r="AG8" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH8" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI8" s="7" t="n">
-        <v>65</v>
-      </c>
-      <c r="AJ8" s="7" t="n">
-        <v>175</v>
+      <c r="G8" s="7">
+        <f>SUM(G6:G7)</f>
+        <v/>
+      </c>
+      <c r="H8" s="7">
+        <f>SUM(H6:H7)</f>
+        <v/>
+      </c>
+      <c r="I8" s="7">
+        <f>SUM(I6:I7)</f>
+        <v/>
+      </c>
+      <c r="J8" s="7">
+        <f>SUM(J6:J7)</f>
+        <v/>
+      </c>
+      <c r="K8" s="7">
+        <f>SUM(K6:K7)</f>
+        <v/>
+      </c>
+      <c r="L8" s="7">
+        <f>SUM(L6:L7)</f>
+        <v/>
+      </c>
+      <c r="M8" s="7">
+        <f>SUM(M6:M7)</f>
+        <v/>
+      </c>
+      <c r="N8" s="7">
+        <f>SUM(N6:N7)</f>
+        <v/>
+      </c>
+      <c r="O8" s="7">
+        <f>SUM(O6:O7)</f>
+        <v/>
+      </c>
+      <c r="P8" s="7">
+        <f>SUM(P6:P7)</f>
+        <v/>
+      </c>
+      <c r="Q8" s="7">
+        <f>SUM(Q6:Q7)</f>
+        <v/>
+      </c>
+      <c r="R8" s="7">
+        <f>SUM(R6:R7)</f>
+        <v/>
+      </c>
+      <c r="S8" s="7">
+        <f>SUM(S6:S7)</f>
+        <v/>
+      </c>
+      <c r="T8" s="7">
+        <f>SUM(T6:T7)</f>
+        <v/>
+      </c>
+      <c r="U8" s="7">
+        <f>SUM(U6:U7)</f>
+        <v/>
+      </c>
+      <c r="V8" s="7">
+        <f>SUM(V6:V7)</f>
+        <v/>
+      </c>
+      <c r="W8" s="7">
+        <f>SUM(W6:W7)</f>
+        <v/>
+      </c>
+      <c r="X8" s="7">
+        <f>SUM(X6:X7)</f>
+        <v/>
+      </c>
+      <c r="Y8" s="7">
+        <f>SUM(Y6:Y7)</f>
+        <v/>
+      </c>
+      <c r="Z8" s="7">
+        <f>SUM(Z6:Z7)</f>
+        <v/>
+      </c>
+      <c r="AA8" s="7">
+        <f>SUM(AA6:AA7)</f>
+        <v/>
+      </c>
+      <c r="AB8" s="7">
+        <f>SUM(AB6:AB7)</f>
+        <v/>
+      </c>
+      <c r="AC8" s="7">
+        <f>SUM(AC6:AC7)</f>
+        <v/>
+      </c>
+      <c r="AD8" s="7">
+        <f>SUM(AD6:AD7)</f>
+        <v/>
+      </c>
+      <c r="AE8" s="7">
+        <f>SUM(AE6:AE7)</f>
+        <v/>
+      </c>
+      <c r="AF8" s="7">
+        <f>SUM(AF6:AF7)</f>
+        <v/>
+      </c>
+      <c r="AG8" s="7">
+        <f>SUM(AG6:AG7)</f>
+        <v/>
+      </c>
+      <c r="AH8" s="7">
+        <f>SUM(AH6:AH7)</f>
+        <v/>
+      </c>
+      <c r="AI8" s="7">
+        <f>SUM(AI6:AI7)</f>
+        <v/>
+      </c>
+      <c r="AJ8" s="7">
+        <f>SUM(AJ6:AJ7)</f>
+        <v/>
       </c>
     </row>
   </sheetData>
